--- a/biology/Zoologie/Cerianthus_membranaceus/Cerianthus_membranaceus.xlsx
+++ b/biology/Zoologie/Cerianthus_membranaceus/Cerianthus_membranaceus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cerianthus membranaceus est une espèce de la famille des Cerianthidae.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,6 +552,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -563,9 +579,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (12 janvier 2023)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (12 janvier 2023) :
 Cerianthus membranaceus var. nigricans
 Cerianthus membranaceus var. roseus Andres, 1881
 Cerianthus membranaceus var. violaceus
@@ -598,11 +616,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cerianthus membranaceus (Gmelin, 1791)[1].
-L'espèce a été initialement classée dans le genre Tubularia sous le protonyme Tubularia membranacea Gmelin, 1791[1].
-Cerianthus membranaceus a pour synonymes[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Cerianthus membranaceus (Gmelin, 1791).
+L'espèce a été initialement classée dans le genre Tubularia sous le protonyme Tubularia membranacea Gmelin, 1791.
+Cerianthus membranaceus a pour synonymes :
 Actinia (Ectacmaea) elongata Grube, 1840
 Actinia cylindrica Renier, 1807
 Actinia vestita Renier, 1807
@@ -648,7 +668,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gmelin, J. F. (1791). Vermes. In: Gmelin J.F. (Ed.) Caroli a Linnaei Systema Naturae per Regna Tria Naturae, Ed. 13. Tome 1(6). G.E. Beer, Lipsiae [Leipzig]. pp. 3021-3910. Systema Naturae.  Linneaeus (ed.).  Ed. 13. 1: pars. 6. lire</t>
         </is>
